--- a/biology/Médecine/Melæna/Melæna.xlsx
+++ b/biology/Médecine/Melæna/Melæna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mel%C3%A6na</t>
+          <t>Melæna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le melæna  ou méléna est, en médecine, un symptôme caractérisé par l'évacuation par l'anus de sang noir, pâteux et nauséabond, mélangé ou non aux selles. Les selles sont souvent qualifiées de goudronneuses et peuvent être constatées soit par le patient soit par le médecin lors du toucher rectal. La couleur, la consistance et l'odeur sont dues à une digestion incomplète et indiquent une hémorragie située relativement haut dans le tube digestif. Les selles doivent séjourner au moins 14 heures dans le tractus gastro-intestinal pour qu'il y ait présence de méléna. C'est l'oxydation de l'hémoglobine lors du passage dans l'intestin grêle et le côlon qui est responsable de la couleur noire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mel%C3%A6na</t>
+          <t>Melæna</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Causes possibles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ulcérations de l'estomac ou du duodenum
 Gastrite
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mel%C3%A6na</t>
+          <t>Melæna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La première étape du diagnostic est de vérifier la présence de sang dans les selles. Un médecin procède à un toucher rectal.
 Si la présence de sang dans les selles est confirmée, il faut en rechercher la cause au cours d'une hospitalisation.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mel%C3%A6na</t>
+          <t>Melæna</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les selles peuvent être noires lors de l'absorption de médicaments tels que :
 le fer ;
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mel%C3%A6na</t>
+          <t>Melæna</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'hospitalisation d'urgence est souhaitable pour évaluer l'abondance de l'hémorragie.
 Traitement des ulcères.
